--- a/outputs-GTDB-r202/f__Zambryskibacteraceae.xlsx
+++ b/outputs-GTDB-r202/f__Zambryskibacteraceae.xlsx
@@ -560,7 +560,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>g__12-FULL-44-12b</t>
+          <t>g__12-FULL-44-12b(reject)</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>g__12-FULL-44-12b</t>
+          <t>g__12-FULL-44-12b(reject)</t>
         </is>
       </c>
     </row>
